--- a/testB.xlsx
+++ b/testB.xlsx
@@ -12,12 +12,11 @@
     <sheet name="ITEM" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>TEST ID</t>
   </si>
@@ -40,9 +39,6 @@
     <t>T3</t>
   </si>
   <si>
-    <t>USERNAME|PASSWORD</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
@@ -124,7 +120,13 @@
     <t>White</t>
   </si>
   <si>
-    <t>ITEM|QUANTITY|SIZE|COLOR</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>addItem</t>
+  </si>
+  <si>
+    <t>completeOrder</t>
   </si>
 </sst>
 </file>
@@ -506,7 +508,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,33 +544,33 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,43 +578,46 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -644,10 +649,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -677,30 +682,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
